--- a/Fire in the USA/Imported Data/ExtractedData.xlsx
+++ b/Fire in the USA/Imported Data/ExtractedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Projects\Fire in the USA\Imported Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10007BBA-6C70-4FCD-A067-863ABA124061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80171C43-0BC3-4F75-8D00-805AE3F81AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{141EA1A1-D7D9-4D70-B522-7901A390FCB1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="47">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -525,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4A6940-6EE4-41EC-B764-260A1ABFB405}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -621,34 +621,28 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
+      <c r="L2">
+        <v>3663318</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>102911</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>1085</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3530</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3">
-        <v>3384</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>19685149</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -656,16 +650,16 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>17861</v>
+        <v>1085</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>6034</v>
+        <v>3530</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -674,10 +668,10 @@
         <v>46</v>
       </c>
       <c r="H4">
-        <v>3221</v>
+        <v>3384</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -685,16 +679,16 @@
         <v>2012</v>
       </c>
       <c r="B5">
-        <v>655</v>
+        <v>17861</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>3630</v>
+        <v>6034</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -703,10 +697,10 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <v>3254</v>
+        <v>3221</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -714,16 +708,16 @@
         <v>2012</v>
       </c>
       <c r="B6">
-        <v>1342</v>
+        <v>655</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>4581</v>
+        <v>3630</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
@@ -732,10 +726,10 @@
         <v>46</v>
       </c>
       <c r="H6">
-        <v>3210</v>
+        <v>3254</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -743,16 +737,16 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>2115</v>
+        <v>1342</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>2809</v>
+        <v>4581</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -761,21 +755,27 @@
         <v>46</v>
       </c>
       <c r="H7">
-        <v>3468</v>
+        <v>3210</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2012</v>
       </c>
+      <c r="B8">
+        <v>2115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
       <c r="D8">
-        <v>72</v>
+        <v>2809</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -784,27 +784,21 @@
         <v>46</v>
       </c>
       <c r="H8">
-        <v>3513</v>
+        <v>3468</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9">
-        <v>354</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>2012</v>
       </c>
       <c r="D9">
-        <v>2585</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -813,10 +807,10 @@
         <v>46</v>
       </c>
       <c r="H9">
-        <v>3166</v>
+        <v>3513</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -824,16 +818,16 @@
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>1064</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3410</v>
+        <v>2585</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -842,39 +836,33 @@
         <v>46</v>
       </c>
       <c r="H10">
-        <v>3460</v>
+        <v>3166</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>1451764</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>104218</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11">
-        <v>17753</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6051</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11">
-        <v>3338</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>17791837</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -882,16 +870,16 @@
         <v>2013</v>
       </c>
       <c r="B12">
-        <v>596</v>
+        <v>1064</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3888</v>
+        <v>3410</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -900,10 +888,10 @@
         <v>46</v>
       </c>
       <c r="H12">
-        <v>3259</v>
+        <v>3460</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -911,16 +899,16 @@
         <v>2013</v>
       </c>
       <c r="B13">
-        <v>1259</v>
+        <v>17753</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>4392</v>
+        <v>6051</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -929,10 +917,10 @@
         <v>46</v>
       </c>
       <c r="H13">
-        <v>3221</v>
+        <v>3338</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
@@ -940,16 +928,16 @@
         <v>2013</v>
       </c>
       <c r="B14">
-        <v>2235</v>
+        <v>596</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2752</v>
+        <v>3888</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>45</v>
@@ -958,21 +946,27 @@
         <v>46</v>
       </c>
       <c r="H14">
-        <v>3393</v>
+        <v>3259</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2013</v>
       </c>
+      <c r="B15">
+        <v>1259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
       <c r="D15">
-        <v>77</v>
+        <v>4392</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -981,27 +975,27 @@
         <v>46</v>
       </c>
       <c r="H15">
-        <v>3424</v>
+        <v>3221</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B16">
-        <v>332</v>
+        <v>2235</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>2466</v>
+        <v>2752</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -1010,57 +1004,21 @@
         <v>46</v>
       </c>
       <c r="H16">
-        <v>3344</v>
+        <v>3393</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16">
-        <v>15348</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16">
-        <v>2800000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>105549</v>
-      </c>
-      <c r="R16">
-        <v>217</v>
-      </c>
-      <c r="S16">
-        <v>32900000</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>1276</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+        <v>2013</v>
       </c>
       <c r="D17">
-        <v>3582</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -1069,28 +1027,10 @@
         <v>46</v>
       </c>
       <c r="H17">
-        <v>3505</v>
+        <v>3424</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17">
-        <v>9190</v>
-      </c>
-      <c r="K17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17">
-        <v>10800000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17">
-        <v>54</v>
-      </c>
-      <c r="P17" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -1098,16 +1038,16 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>18541</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>6190</v>
+        <v>2466</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>45</v>
@@ -1116,39 +1056,54 @@
         <v>46</v>
       </c>
       <c r="H18">
-        <v>3462</v>
+        <v>3344</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>15348</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18">
+        <v>2890942</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>105549</v>
+      </c>
+      <c r="R18">
+        <v>217</v>
+      </c>
+      <c r="S18">
+        <v>32900000</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19">
-        <v>552</v>
-      </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>4143</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19">
-        <v>3496</v>
-      </c>
-      <c r="I19" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>13742026</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
@@ -1156,16 +1111,16 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>4747</v>
+        <v>3582</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -1174,10 +1129,22 @@
         <v>46</v>
       </c>
       <c r="H20">
-        <v>3577</v>
+        <v>3505</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>9190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
@@ -1185,16 +1152,16 @@
         <v>2014</v>
       </c>
       <c r="B21">
-        <v>2549</v>
+        <v>18541</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>2321</v>
+        <v>6190</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -1203,21 +1170,27 @@
         <v>46</v>
       </c>
       <c r="H21">
-        <v>3656</v>
+        <v>3462</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2014</v>
       </c>
+      <c r="B22">
+        <v>552</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
       <c r="D22">
-        <v>79</v>
+        <v>4143</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
@@ -1226,27 +1199,27 @@
         <v>46</v>
       </c>
       <c r="H22">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B23">
-        <v>328</v>
+        <v>1288</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>2773</v>
+        <v>4747</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -1255,57 +1228,27 @@
         <v>46</v>
       </c>
       <c r="H23">
-        <v>3720</v>
+        <v>3577</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23">
-        <v>16867</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23">
-        <v>2100000</v>
-      </c>
-      <c r="M23" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <v>22</v>
-      </c>
-      <c r="P23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>106973</v>
-      </c>
-      <c r="R23">
-        <v>217</v>
-      </c>
-      <c r="S23">
-        <v>33600000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B24">
-        <v>1685</v>
+        <v>2549</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>4445</v>
+        <v>2321</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>45</v>
@@ -1314,45 +1257,21 @@
         <v>46</v>
       </c>
       <c r="H24">
-        <v>4117</v>
+        <v>3656</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24">
-        <v>10751</v>
-      </c>
-      <c r="K24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24">
-        <v>19300000</v>
-      </c>
-      <c r="M24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24">
-        <v>71</v>
-      </c>
-      <c r="P24" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2015</v>
-      </c>
-      <c r="B25">
-        <v>20430</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
+        <v>2014</v>
       </c>
       <c r="D25">
-        <v>6737</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
         <v>45</v>
@@ -1361,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="H25">
-        <v>3907</v>
+        <v>3499</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
@@ -1372,16 +1291,16 @@
         <v>2015</v>
       </c>
       <c r="B26">
-        <v>502</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>4558</v>
+        <v>2773</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
         <v>45</v>
@@ -1390,39 +1309,54 @@
         <v>46</v>
       </c>
       <c r="H26">
-        <v>4024</v>
+        <v>3720</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>16867</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26">
+        <v>4525290</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>22</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>106973</v>
+      </c>
+      <c r="R26">
+        <v>217</v>
+      </c>
+      <c r="S26">
+        <v>33600000</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2015</v>
       </c>
-      <c r="B27">
-        <v>1449</v>
-      </c>
       <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>5460</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27">
-        <v>3788</v>
-      </c>
-      <c r="I27" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>23897061</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
@@ -1430,16 +1364,16 @@
         <v>2015</v>
       </c>
       <c r="B28">
-        <v>3224</v>
+        <v>1685</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>3409</v>
+        <v>4445</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>45</v>
@@ -1448,21 +1382,39 @@
         <v>46</v>
       </c>
       <c r="H28">
-        <v>4123</v>
+        <v>4117</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>10751</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2015</v>
       </c>
+      <c r="B29">
+        <v>20430</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
       <c r="D29">
-        <v>66</v>
+        <v>6737</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
@@ -1471,27 +1423,27 @@
         <v>46</v>
       </c>
       <c r="H29">
-        <v>3943</v>
+        <v>3907</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B30">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>2837</v>
+        <v>4558</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
@@ -1500,57 +1452,27 @@
         <v>46</v>
       </c>
       <c r="H30">
-        <v>3717</v>
+        <v>4024</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30">
-        <v>16474</v>
-      </c>
-      <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30">
-        <v>3200000</v>
-      </c>
-      <c r="M30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>18</v>
-      </c>
-      <c r="P30" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>109402</v>
-      </c>
-      <c r="R30">
-        <v>217</v>
-      </c>
-      <c r="S30">
-        <v>34200000</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B31">
-        <v>1870</v>
+        <v>1449</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>4578</v>
+        <v>5460</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
@@ -1559,45 +1481,27 @@
         <v>46</v>
       </c>
       <c r="H31">
-        <v>4056</v>
+        <v>3788</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31">
-        <v>11421</v>
-      </c>
-      <c r="K31" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31">
-        <v>31400000</v>
-      </c>
-      <c r="M31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B32">
-        <v>19987</v>
+        <v>3224</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>6730</v>
+        <v>3409</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
@@ -1606,27 +1510,21 @@
         <v>46</v>
       </c>
       <c r="H32">
-        <v>3858</v>
+        <v>4123</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2016</v>
-      </c>
-      <c r="B33">
-        <v>487</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
+        <v>2015</v>
       </c>
       <c r="D33">
-        <v>4569</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
@@ -1635,10 +1533,10 @@
         <v>46</v>
       </c>
       <c r="H33">
-        <v>4014</v>
+        <v>3943</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
@@ -1646,16 +1544,16 @@
         <v>2016</v>
       </c>
       <c r="B34">
-        <v>1455</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>5568</v>
+        <v>2837</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
@@ -1664,50 +1562,68 @@
         <v>46</v>
       </c>
       <c r="H34">
-        <v>3907</v>
+        <v>3717</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>16474</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34">
+        <v>3241810</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>18</v>
+      </c>
+      <c r="P34" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>109402</v>
+      </c>
+      <c r="R34">
+        <v>217</v>
+      </c>
+      <c r="S34">
+        <v>34200000</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2016</v>
       </c>
-      <c r="B35">
-        <v>3736</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>3399</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35">
-        <v>4265</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
+      <c r="L35">
+        <v>34660724</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2016</v>
       </c>
+      <c r="B36">
+        <v>1870</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
       <c r="D36">
-        <v>80</v>
+        <v>4578</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
@@ -1716,27 +1632,39 @@
         <v>46</v>
       </c>
       <c r="H36">
-        <v>4078</v>
+        <v>4056</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>11421</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36">
+        <v>39</v>
+      </c>
+      <c r="P36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B37">
-        <v>363</v>
+        <v>19987</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>2959</v>
+        <v>6730</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -1745,57 +1673,27 @@
         <v>46</v>
       </c>
       <c r="H37">
-        <v>3987</v>
+        <v>3858</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37">
-        <v>17471</v>
-      </c>
-      <c r="K37" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37">
-        <v>2900000</v>
-      </c>
-      <c r="M37" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>24</v>
-      </c>
-      <c r="P37" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q37">
-        <v>110379</v>
-      </c>
-      <c r="R37">
-        <v>232</v>
-      </c>
-      <c r="S37">
-        <v>35600000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B38">
-        <v>1872</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>4602</v>
+        <v>4569</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
@@ -1804,45 +1702,27 @@
         <v>46</v>
       </c>
       <c r="H38">
-        <v>4347</v>
+        <v>4014</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38">
-        <v>12078</v>
-      </c>
-      <c r="K38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38">
-        <v>39900000</v>
-      </c>
-      <c r="M38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38">
-        <v>49</v>
-      </c>
-      <c r="P38" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B39">
-        <v>21262</v>
+        <v>1455</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>7078</v>
+        <v>5568</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
@@ -1851,27 +1731,27 @@
         <v>46</v>
       </c>
       <c r="H39">
-        <v>4249</v>
+        <v>3907</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B40">
-        <v>598</v>
+        <v>3736</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>4875</v>
+        <v>3399</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
@@ -1880,27 +1760,21 @@
         <v>46</v>
       </c>
       <c r="H40">
-        <v>4369</v>
+        <v>4265</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>2017</v>
-      </c>
-      <c r="B41">
-        <v>1593</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>2016</v>
       </c>
       <c r="D41">
-        <v>6063</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
@@ -1909,10 +1783,10 @@
         <v>46</v>
       </c>
       <c r="H41">
-        <v>4191</v>
+        <v>4078</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
@@ -1920,16 +1794,16 @@
         <v>2017</v>
       </c>
       <c r="B42">
-        <v>3861</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>3752</v>
+        <v>2959</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
@@ -1938,50 +1812,71 @@
         <v>46</v>
       </c>
       <c r="H42">
-        <v>4162</v>
+        <v>3987</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J42">
+        <v>17471</v>
+      </c>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42">
+        <v>2957858</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>110379</v>
+      </c>
+      <c r="R42">
+        <v>232</v>
+      </c>
+      <c r="S42">
+        <v>35600000</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2017</v>
       </c>
-      <c r="D43">
-        <v>75</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43">
-        <v>4244</v>
-      </c>
-      <c r="I43" t="s">
-        <v>38</v>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>42909927</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B44">
-        <v>345</v>
+        <v>1872</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>2842</v>
+        <v>4602</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
@@ -1990,57 +1885,39 @@
         <v>46</v>
       </c>
       <c r="H44">
-        <v>3987</v>
+        <v>4347</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J44">
-        <v>16790</v>
+        <v>12078</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44">
-        <v>3000000</v>
-      </c>
-      <c r="M44" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="O44">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="P44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q44">
-        <v>111954</v>
-      </c>
-      <c r="R44">
-        <v>232</v>
-      </c>
-      <c r="S44">
-        <v>39600000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B45">
-        <v>1717</v>
+        <v>21262</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>4431</v>
+        <v>7078</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -2049,45 +1926,27 @@
         <v>46</v>
       </c>
       <c r="H45">
-        <v>4178</v>
+        <v>4249</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45">
-        <v>11995</v>
-      </c>
-      <c r="K45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45">
-        <v>79500000</v>
-      </c>
-      <c r="M45" t="s">
-        <v>14</v>
-      </c>
-      <c r="O45">
-        <v>44</v>
-      </c>
-      <c r="P45" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B46">
-        <v>20646</v>
+        <v>598</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>6954</v>
+        <v>4875</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
@@ -2096,27 +1955,27 @@
         <v>46</v>
       </c>
       <c r="H46">
-        <v>4187</v>
+        <v>4369</v>
       </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B47">
-        <v>320</v>
+        <v>1593</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>4661</v>
+        <v>6063</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
@@ -2125,27 +1984,27 @@
         <v>46</v>
       </c>
       <c r="H47">
-        <v>4148</v>
+        <v>4191</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B48">
-        <v>1558</v>
+        <v>3861</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>6244</v>
+        <v>3752</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
@@ -2154,27 +2013,21 @@
         <v>46</v>
       </c>
       <c r="H48">
-        <v>3995</v>
+        <v>4162</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>2018</v>
-      </c>
-      <c r="B49">
-        <v>4199</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
+        <v>2017</v>
       </c>
       <c r="D49">
-        <v>3433</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
@@ -2183,21 +2036,27 @@
         <v>46</v>
       </c>
       <c r="H49">
-        <v>4263</v>
+        <v>4244</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2018</v>
       </c>
+      <c r="B50">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
       <c r="D50">
-        <v>49</v>
+        <v>2842</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
         <v>45</v>
@@ -2206,77 +2065,68 @@
         <v>46</v>
       </c>
       <c r="H50">
-        <v>4015</v>
+        <v>3987</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>16790</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50">
+        <v>3004864</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>16</v>
+      </c>
+      <c r="P50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>111954</v>
+      </c>
+      <c r="R50">
+        <v>232</v>
+      </c>
+      <c r="S50">
+        <v>39600000</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>2019</v>
-      </c>
-      <c r="B51">
-        <v>381</v>
+        <v>2018</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>2920</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51">
-        <v>4105</v>
-      </c>
-      <c r="I51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51">
-        <v>16265</v>
-      </c>
-      <c r="K51" t="s">
-        <v>41</v>
-      </c>
       <c r="L51">
-        <v>3800000</v>
+        <v>82543955</v>
       </c>
       <c r="M51" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>112930</v>
-      </c>
-      <c r="R51">
-        <v>239</v>
-      </c>
-      <c r="S51">
-        <v>41100000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B52">
-        <v>1848</v>
+        <v>1717</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52">
-        <v>4380</v>
+        <v>4431</v>
       </c>
       <c r="E52" t="s">
         <v>24</v>
@@ -2288,30 +2138,36 @@
         <v>46</v>
       </c>
       <c r="H52">
-        <v>4160</v>
+        <v>4178</v>
       </c>
       <c r="I52" t="s">
         <v>33</v>
       </c>
       <c r="J52">
-        <v>13072</v>
+        <v>11995</v>
       </c>
       <c r="K52" t="s">
         <v>42</v>
       </c>
+      <c r="O52">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B53">
-        <v>20741</v>
+        <v>20646</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53">
-        <v>6935</v>
+        <v>6954</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -2323,7 +2179,7 @@
         <v>46</v>
       </c>
       <c r="H53">
-        <v>4264</v>
+        <v>4187</v>
       </c>
       <c r="I53" t="s">
         <v>34</v>
@@ -2331,16 +2187,16 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B54">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>4745</v>
+        <v>4661</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -2352,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="H54">
-        <v>4160</v>
+        <v>4148</v>
       </c>
       <c r="I54" t="s">
         <v>35</v>
@@ -2360,16 +2216,16 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B55">
-        <v>1614</v>
+        <v>1558</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55">
-        <v>6570</v>
+        <v>6244</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
@@ -2381,7 +2237,7 @@
         <v>46</v>
       </c>
       <c r="H55">
-        <v>4004</v>
+        <v>3995</v>
       </c>
       <c r="I55" t="s">
         <v>36</v>
@@ -2389,16 +2245,16 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B56">
-        <v>4459</v>
+        <v>4199</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56">
-        <v>3650</v>
+        <v>3433</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
@@ -2410,7 +2266,7 @@
         <v>46</v>
       </c>
       <c r="H56">
-        <v>4316</v>
+        <v>4263</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
@@ -2418,10 +2274,10 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -2433,9 +2289,236 @@
         <v>46</v>
       </c>
       <c r="H57">
+        <v>4015</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>381</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2920</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58">
+        <v>4105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>16265</v>
+      </c>
+      <c r="K58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58">
+        <v>3800000</v>
+      </c>
+      <c r="M58" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>112930</v>
+      </c>
+      <c r="R58">
+        <v>239</v>
+      </c>
+      <c r="S58">
+        <v>41100000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>1848</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4380</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59">
+        <v>4160</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59">
+        <v>13072</v>
+      </c>
+      <c r="K59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>20741</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>6935</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60">
         <v>4264</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>4745</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61">
+        <v>4160</v>
+      </c>
+      <c r="I61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>1614</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>6570</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62">
+        <v>4004</v>
+      </c>
+      <c r="I62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>4459</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>3650</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63">
+        <v>4316</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="D64">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64">
+        <v>4264</v>
+      </c>
+      <c r="I64" t="s">
         <v>38</v>
       </c>
     </row>
